--- a/data/trans_bre/P5_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,19; 5,64</t>
+          <t>-16,12; 5,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,28; 7,81</t>
+          <t>-13,28; 8,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 9,29</t>
+          <t>-12,93; 9,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 18,3</t>
+          <t>-3,98; 19,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-43,53; 21,52</t>
+          <t>-40,3; 19,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-31,21; 21,48</t>
+          <t>-29,05; 23,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-29,68; 31,99</t>
+          <t>-32,59; 37,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,96; 189,74</t>
+          <t>-21,73; 203,51</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 13,2</t>
+          <t>-1,54; 12,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 3,54</t>
+          <t>-13,64; 3,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 6,65</t>
+          <t>-8,58; 7,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 8,15</t>
+          <t>-6,59; 8,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 71,59</t>
+          <t>-7,1; 66,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,14; 10,52</t>
+          <t>-31,94; 8,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 20,31</t>
+          <t>-22,58; 21,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-28,56; 44,76</t>
+          <t>-26,18; 46,97</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,39; 7,66</t>
+          <t>-13,51; 7,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 14,81</t>
+          <t>-8,03; 14,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 7,53</t>
+          <t>-11,62; 6,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 6,77</t>
+          <t>-7,6; 6,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-37,3; 30,88</t>
+          <t>-37,41; 30,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,06; 51,87</t>
+          <t>-19,63; 51,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-27,42; 21,27</t>
+          <t>-26,19; 20,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-32,97; 47,54</t>
+          <t>-34,22; 50,42</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 7,11</t>
+          <t>-10,05; 6,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 16,31</t>
+          <t>-5,08; 15,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,01; 4,59</t>
+          <t>-16,06; 3,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 12,21</t>
+          <t>-3,21; 12,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,99; 28,78</t>
+          <t>-29,6; 28,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,16; 48,17</t>
+          <t>-11,8; 46,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,79; 12,62</t>
+          <t>-34,59; 11,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,82; 105,94</t>
+          <t>-20,58; 111,24</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 4,9</t>
+          <t>-4,39; 4,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 4,65</t>
+          <t>-5,16; 5,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 2,28</t>
+          <t>-7,11; 2,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 6,42</t>
+          <t>-2,29; 6,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,69; 19,6</t>
+          <t>-14,71; 16,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 12,96</t>
+          <t>-12,5; 14,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 6,38</t>
+          <t>-18,14; 6,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 39,97</t>
+          <t>-12,54; 40,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,83</t>
+          <t>8,49</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>55,02%</t>
+          <t>62,2%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,12; 5,97</t>
+          <t>-15,92; 7,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,28; 8,1</t>
+          <t>-13,1; 8,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,93; 9,74</t>
+          <t>-11,81; 8,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 19,19</t>
+          <t>-2,14; 19,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-40,3; 19,96</t>
+          <t>-39,45; 27,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,05; 23,41</t>
+          <t>-28,72; 24,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-32,59; 37,72</t>
+          <t>-31,56; 32,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-21,73; 203,51</t>
+          <t>-15,03; 226,49</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>2,05%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 12,88</t>
+          <t>-2,04; 12,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 3,12</t>
+          <t>-13,92; 3,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 7,06</t>
+          <t>-8,88; 7,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 8,44</t>
+          <t>-6,42; 8,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 66,92</t>
+          <t>-7,76; 69,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,94; 8,74</t>
+          <t>-32,5; 10,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-22,58; 21,47</t>
+          <t>-22,53; 22,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,18; 46,97</t>
+          <t>-25,85; 47,09</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,51%</t>
+          <t>-2,19%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 7,8</t>
+          <t>-12,89; 8,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 14,68</t>
+          <t>-7,69; 14,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 6,86</t>
+          <t>-13,13; 6,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 6,84</t>
+          <t>-7,73; 6,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-37,41; 30,42</t>
+          <t>-36,47; 33,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,63; 51,29</t>
+          <t>-21,56; 49,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-26,19; 20,15</t>
+          <t>-29,21; 17,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-34,22; 50,42</t>
+          <t>-34,61; 40,73</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>8,37</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>60,23%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 6,97</t>
+          <t>-9,45; 6,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 15,82</t>
+          <t>-6,45; 15,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,06; 3,86</t>
+          <t>-16,02; 4,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 12,15</t>
+          <t>-1,58; 32,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,6; 28,44</t>
+          <t>-28,78; 28,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,8; 46,92</t>
+          <t>-14,25; 47,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,59; 11,06</t>
+          <t>-34,62; 14,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,58; 111,24</t>
+          <t>-12,61; 253,22</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>24,03%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 4,36</t>
+          <t>-4,22; 4,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 5,12</t>
+          <t>-5,4; 4,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 2,13</t>
+          <t>-7,02; 2,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 6,45</t>
+          <t>-0,51; 15,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,71; 16,58</t>
+          <t>-14,08; 17,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,5; 14,13</t>
+          <t>-12,86; 14,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-18,14; 6,14</t>
+          <t>-17,94; 7,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,54; 40,47</t>
+          <t>-3,17; 94,72</t>
         </is>
       </c>
     </row>
